--- a/list_of_articles.xlsx
+++ b/list_of_articles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
   <si>
     <t>Tabell 1</t>
   </si>
@@ -249,73 +249,55 @@
     <t>Poisson regression</t>
   </si>
   <si>
-    <t>Interim findings from first-dose mass COVID-19 vaccination roll-out and COVID-19 hospital admissions in Scotland: a national prospective cohort study</t>
-  </si>
-  <si>
-    <t>Vasileiou E, Simpson CR, Shi T, Kerr S, Agrawal U, Akbari A, Bedston S, Beggs J, Bradley D, Chuter A, de Lusignan S, Docherty AB, Ford D, Hobbs FR, Joy M, Katikireddi SV, Marple J, McCowan C, McGagh D, McMenamin J, Moore E, Murray JL, Pan J, Ritchie L, Shah SA, Stock S, Torabi F, Tsang RS, Wood R, Woolhouse M, Robertson C, Sheikh A.</t>
-  </si>
-  <si>
-    <t>Lancet</t>
+    <t>Association of Fluoroquinolone Use With Short-term Risk of Development of Aortic Aneurysm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Emily R. Newton, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Adam W. Akerman, Paula D. Strassle,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Melina R. Kibbe</t>
+    </r>
+  </si>
+  <si>
+    <t>JAMA Surg</t>
   </si>
   <si>
     <t xml:space="preserve">Selection of covariates not clearly motivated. </t>
-  </si>
-  <si>
-    <t>Selected potential confounders of the association between exposure and outcomes, nut clear how. Select some because they are associated with the outcome, but it is not clear if this is based on the current study or previous research. Propensity score weighting.</t>
-  </si>
-  <si>
-    <t>Residential status and health in middle and late life: a population-based study with new data from Spain</t>
-  </si>
-  <si>
-    <t>Requena M, Reher D.</t>
-  </si>
-  <si>
-    <t>Association of Fluoroquinolone Use With Short-term Risk of Development of Aortic Aneurysm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Emily R. Newton, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Adam W. Akerman, Paula D. Strassle,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Melina R. Kibbe</t>
-    </r>
-  </si>
-  <si>
-    <t>JAMA Surg</t>
   </si>
   <si>
     <t>Propensity score weighting.</t>
@@ -441,6 +423,33 @@
     <t>Obesity risk factor for diabetes.</t>
   </si>
   <si>
+    <t>Residential status and health in middle and late life: a population-based study with new data from Spain</t>
+  </si>
+  <si>
+    <t>Requena M, Reher D.</t>
+  </si>
+  <si>
+    <t>Pre-specified set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not explain why included variables are potential confounders and of what. </t>
+  </si>
+  <si>
+    <t>Interim findings from first-dose mass COVID-19 vaccination roll-out and COVID-19 hospital admissions in Scotland: a national prospective cohort study</t>
+  </si>
+  <si>
+    <t>Vasileiou E, Simpson CR, Shi T, Kerr S, Agrawal U, Akbari A, Bedston S, Beggs J, Bradley D, Chuter A, de Lusignan S, Docherty AB, Ford D, Hobbs FR, Joy M, Katikireddi SV, Marple J, McCowan C, McGagh D, McMenamin J, Moore E, Murray JL, Pan J, Ritchie L, Shah SA, Stock S, Torabi F, Tsang RS, Wood R, Woolhouse M, Robertson C, Sheikh A.</t>
+  </si>
+  <si>
+    <t>Lancet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-specified set </t>
+  </si>
+  <si>
+    <t>Selected potential confounders of the association between exposure and outcomes, not clear how. Select some because they are associated with the outcome, but it is not clear if this is based on the current study or previous research. Propensity score weighting.</t>
+  </si>
+  <si>
     <t>Association Between Proton Pump Inhibitor Use and Risk of Asthma in Children</t>
   </si>
   <si>
@@ -519,9 +528,6 @@
   </si>
   <si>
     <t>JAMA Pediatr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-specified set </t>
   </si>
   <si>
     <t xml:space="preserve">Used all covariates in propensity score model. </t>
@@ -1610,9 +1616,6 @@
     <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1620,6 +1623,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2930,7 +2936,7 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" ht="30.65" customHeight="1">
+    <row r="7" ht="37.4" customHeight="1">
       <c r="A7" s="11">
         <v>34031108</v>
       </c>
@@ -3032,7 +3038,7 @@
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
     </row>
-    <row r="10" ht="28.25" customHeight="1">
+    <row r="10" ht="40.6" customHeight="1">
       <c r="A10" s="11">
         <v>32341045</v>
       </c>
@@ -3068,7 +3074,7 @@
       </c>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" ht="27.35" customHeight="1">
+    <row r="11" ht="46.9" customHeight="1">
       <c r="A11" s="11">
         <v>31951272</v>
       </c>
@@ -3176,23 +3182,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" ht="40.05" customHeight="1">
-      <c r="A14" s="11">
-        <v>33901420</v>
-      </c>
-      <c r="B14" t="s" s="19">
+    <row r="14" ht="36.35" customHeight="1">
+      <c r="A14" s="22">
+        <v>33404647</v>
+      </c>
+      <c r="B14" t="s" s="23">
         <v>60</v>
       </c>
-      <c r="C14" t="s" s="13">
+      <c r="C14" t="s" s="16">
         <v>61</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="24">
         <v>2021</v>
       </c>
-      <c r="E14" t="s" s="16">
+      <c r="E14" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="F14" t="s" s="16">
+      <c r="F14" t="s" s="21">
         <v>54</v>
       </c>
       <c r="G14" t="s" s="16">
@@ -3201,32 +3207,32 @@
       <c r="H14" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="I14" t="s" s="16">
-        <v>29</v>
+      <c r="I14" t="s" s="21">
+        <v>32</v>
       </c>
       <c r="J14" t="s" s="16">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" t="s" s="16">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" ht="38.4" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" ht="53.2" customHeight="1">
       <c r="A15" s="11">
-        <v>32005782</v>
-      </c>
-      <c r="B15" t="s" s="19">
-        <v>65</v>
+        <v>32697325</v>
+      </c>
+      <c r="B15" t="s" s="12">
+        <v>67</v>
       </c>
       <c r="C15" t="s" s="13">
-        <v>66</v>
-      </c>
-      <c r="D15" s="20">
+        <v>68</v>
+      </c>
+      <c r="D15" s="14">
         <v>2020</v>
       </c>
-      <c r="E15" t="s" s="16">
-        <v>24</v>
+      <c r="E15" t="s" s="15">
+        <v>45</v>
       </c>
       <c r="F15" t="s" s="16">
         <v>54</v>
@@ -3234,69 +3240,71 @@
       <c r="G15" t="s" s="16">
         <v>63</v>
       </c>
-      <c r="H15" s="22"/>
+      <c r="H15" s="25"/>
       <c r="I15" t="s" s="16">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="K15" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="K15" t="s" s="16">
+        <v>69</v>
+      </c>
       <c r="L15" t="s" s="16">
         <v>59</v>
       </c>
     </row>
-    <row r="16" ht="36.35" customHeight="1">
-      <c r="A16" s="23">
-        <v>33404647</v>
-      </c>
-      <c r="B16" t="s" s="24">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s" s="16">
-        <v>68</v>
-      </c>
-      <c r="D16" s="25">
+    <row r="16" ht="38.9" customHeight="1">
+      <c r="A16" s="11">
+        <v>34698847</v>
+      </c>
+      <c r="B16" t="s" s="19">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s" s="13">
+        <v>71</v>
+      </c>
+      <c r="D16" s="20">
         <v>2021</v>
       </c>
-      <c r="E16" t="s" s="13">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s" s="21">
+      <c r="E16" t="s" s="16">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G16" t="s" s="16">
         <v>63</v>
       </c>
-      <c r="H16" t="s" s="13">
-        <v>70</v>
-      </c>
-      <c r="I16" t="s" s="21">
+      <c r="H16" s="25"/>
+      <c r="I16" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J16" t="s" s="16">
-        <v>71</v>
-      </c>
-      <c r="K16" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="K16" t="s" s="16">
+        <v>73</v>
+      </c>
       <c r="L16" t="s" s="16">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" ht="53.2" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" ht="48.55" customHeight="1">
       <c r="A17" s="11">
-        <v>32697325</v>
-      </c>
-      <c r="B17" t="s" s="12">
-        <v>73</v>
+        <v>32873607</v>
+      </c>
+      <c r="B17" t="s" s="19">
+        <v>75</v>
       </c>
       <c r="C17" t="s" s="13">
-        <v>74</v>
-      </c>
-      <c r="D17" s="14">
+        <v>76</v>
+      </c>
+      <c r="D17" s="20">
         <v>2020</v>
       </c>
-      <c r="E17" t="s" s="15">
-        <v>45</v>
+      <c r="E17" t="s" s="16">
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="16">
         <v>54</v>
@@ -3304,35 +3312,37 @@
       <c r="G17" t="s" s="16">
         <v>63</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" t="s" s="13">
+        <v>78</v>
+      </c>
       <c r="I17" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J17" t="s" s="16">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="16">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L17" t="s" s="16">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" ht="38.9" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" ht="44.55" customHeight="1">
       <c r="A18" s="11">
-        <v>34698847</v>
+        <v>34489294</v>
       </c>
       <c r="B18" t="s" s="19">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s" s="13">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D18" s="20">
         <v>2021</v>
       </c>
       <c r="E18" t="s" s="16">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s" s="16">
         <v>54</v>
@@ -3340,35 +3350,35 @@
       <c r="G18" t="s" s="16">
         <v>63</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="25"/>
       <c r="I18" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J18" t="s" s="16">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="16">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s" s="16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" ht="48.55" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" ht="50.1" customHeight="1">
       <c r="A19" s="11">
-        <v>32873607</v>
+        <v>32950075</v>
       </c>
       <c r="B19" t="s" s="19">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s" s="13">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D19" s="20">
         <v>2020</v>
       </c>
       <c r="E19" t="s" s="16">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s" s="16">
         <v>54</v>
@@ -3376,34 +3386,32 @@
       <c r="G19" t="s" s="16">
         <v>63</v>
       </c>
-      <c r="H19" t="s" s="13">
-        <v>84</v>
-      </c>
+      <c r="H19" s="25"/>
       <c r="I19" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J19" t="s" s="16">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s" s="16">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s" s="16">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" ht="44.55" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" ht="39.75" customHeight="1">
       <c r="A20" s="11">
-        <v>34489294</v>
+        <v>33372073</v>
       </c>
       <c r="B20" t="s" s="19">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s" s="13">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D20" s="20">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E20" t="s" s="16">
         <v>24</v>
@@ -3414,65 +3422,63 @@
       <c r="G20" t="s" s="16">
         <v>63</v>
       </c>
-      <c r="H20" s="22"/>
+      <c r="H20" s="25"/>
       <c r="I20" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J20" t="s" s="16">
-        <v>89</v>
-      </c>
-      <c r="K20" t="s" s="16">
-        <v>90</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K20" s="18"/>
       <c r="L20" t="s" s="16">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" ht="50.1" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" ht="47.15" customHeight="1">
       <c r="A21" s="11">
-        <v>32950075</v>
+        <v>32075811</v>
       </c>
       <c r="B21" t="s" s="19">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s" s="13">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D21" s="20">
         <v>2020</v>
       </c>
       <c r="E21" t="s" s="16">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s" s="16">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s" s="16">
         <v>63</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="25"/>
       <c r="I21" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J21" t="s" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="16">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L21" t="s" s="16">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" ht="39.75" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" ht="38.4" customHeight="1">
       <c r="A22" s="11">
-        <v>33372073</v>
+        <v>32005782</v>
       </c>
       <c r="B22" t="s" s="19">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s" s="13">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D22" s="20">
         <v>2020</v>
@@ -3484,80 +3490,82 @@
         <v>54</v>
       </c>
       <c r="G22" t="s" s="16">
-        <v>63</v>
-      </c>
-      <c r="H22" s="22"/>
+        <v>101</v>
+      </c>
+      <c r="H22" t="s" s="13">
+        <v>102</v>
+      </c>
       <c r="I22" t="s" s="16">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s" s="16">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" t="s" s="16">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" ht="47.15" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" ht="40.05" customHeight="1">
       <c r="A23" s="11">
-        <v>32075811</v>
+        <v>33901420</v>
       </c>
       <c r="B23" t="s" s="19">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s" s="13">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D23" s="20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E23" t="s" s="16">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s" s="16">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s" s="16">
-        <v>63</v>
-      </c>
-      <c r="H23" s="22"/>
+        <v>106</v>
+      </c>
+      <c r="H23" t="s" s="13">
+        <v>107</v>
+      </c>
       <c r="I23" t="s" s="16">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s" s="16">
-        <v>89</v>
-      </c>
-      <c r="K23" t="s" s="16">
-        <v>104</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K23" s="18"/>
       <c r="L23" t="s" s="16">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="40.7" customHeight="1">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>33555324</v>
       </c>
       <c r="B24" t="s" s="26">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s" s="13">
-        <v>106</v>
-      </c>
-      <c r="D24" s="25">
+        <v>109</v>
+      </c>
+      <c r="D24" s="24">
         <v>2021</v>
       </c>
       <c r="E24" t="s" s="13">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G24" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H24" t="s" s="13">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I24" t="s" s="13">
         <v>29</v>
@@ -3567,7 +3575,7 @@
       </c>
       <c r="K24" s="18"/>
       <c r="L24" t="s" s="16">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" ht="37.45" customHeight="1">
@@ -3575,10 +3583,10 @@
         <v>33234660</v>
       </c>
       <c r="B25" t="s" s="19">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s" s="13">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D25" s="20">
         <v>2020</v>
@@ -3590,10 +3598,10 @@
         <v>54</v>
       </c>
       <c r="G25" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H25" t="s" s="13">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I25" t="s" s="16">
         <v>29</v>
@@ -3603,7 +3611,7 @@
       </c>
       <c r="K25" s="18"/>
       <c r="L25" t="s" s="16">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" ht="38.4" customHeight="1">
@@ -3611,10 +3619,10 @@
         <v>33739430</v>
       </c>
       <c r="B26" t="s" s="19">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s" s="13">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D26" s="20">
         <v>2021</v>
@@ -3626,10 +3634,10 @@
         <v>54</v>
       </c>
       <c r="G26" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H26" t="s" s="13">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I26" t="s" s="16">
         <v>29</v>
@@ -3639,7 +3647,7 @@
       </c>
       <c r="K26" s="18"/>
       <c r="L26" t="s" s="16">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" ht="34.55" customHeight="1">
@@ -3647,34 +3655,34 @@
         <v>33662324</v>
       </c>
       <c r="B27" t="s" s="19">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s" s="13">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D27" s="20">
         <v>2021</v>
       </c>
       <c r="E27" t="s" s="16">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G27" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s" s="13">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I27" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J27" t="s" s="16">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K27" t="s" s="16">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s" s="16">
         <v>59</v>
@@ -3685,37 +3693,37 @@
         <v>32139600</v>
       </c>
       <c r="B28" t="s" s="28">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s" s="13">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20">
         <v>2020</v>
       </c>
       <c r="E28" t="s" s="16">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G28" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H28" t="s" s="13">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I28" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J28" t="s" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="16">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" ht="39.8" customHeight="1">
@@ -3723,10 +3731,10 @@
         <v>32796021</v>
       </c>
       <c r="B29" t="s" s="19">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s" s="13">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D29" s="20">
         <v>2020</v>
@@ -3738,22 +3746,22 @@
         <v>54</v>
       </c>
       <c r="G29" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s" s="13">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I29" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J29" t="s" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="16">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="16">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" ht="38.7" customHeight="1">
@@ -3761,37 +3769,37 @@
         <v>34416213</v>
       </c>
       <c r="B30" t="s" s="19">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s" s="13">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D30" s="20">
         <v>2021</v>
       </c>
       <c r="E30" t="s" s="16">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G30" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H30" t="s" s="13">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I30" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J30" t="s" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="21">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" ht="52.1" customHeight="1">
@@ -3799,37 +3807,37 @@
         <v>31831635</v>
       </c>
       <c r="B31" t="s" s="19">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s" s="13">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D31" s="20">
         <v>2020</v>
       </c>
       <c r="E31" t="s" s="16">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G31" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H31" t="s" s="13">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I31" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J31" t="s" s="16">
+        <v>83</v>
+      </c>
+      <c r="K31" t="s" s="16">
         <v>89</v>
       </c>
-      <c r="K31" t="s" s="16">
-        <v>95</v>
-      </c>
       <c r="L31" t="s" s="16">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" ht="46.7" customHeight="1">
@@ -3837,35 +3845,35 @@
         <v>32539942</v>
       </c>
       <c r="B32" t="s" s="19">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s" s="13">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D32" s="20">
         <v>2020</v>
       </c>
       <c r="E32" t="s" s="16">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F32" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G32" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H32" t="s" s="13">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J32" t="s" s="16">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K32" s="18"/>
       <c r="L32" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" ht="41.35" customHeight="1">
@@ -3873,35 +3881,35 @@
         <v>31800003</v>
       </c>
       <c r="B33" t="s" s="19">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s" s="13">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D33" s="20">
         <v>2020</v>
       </c>
       <c r="E33" t="s" s="16">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G33" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H33" t="s" s="13">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I33" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J33" t="s" s="16">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K33" s="18"/>
       <c r="L33" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" ht="43.65" customHeight="1">
@@ -3909,35 +3917,35 @@
         <v>32353318</v>
       </c>
       <c r="B34" t="s" s="19">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s" s="13">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D34" s="20">
         <v>2020</v>
       </c>
       <c r="E34" t="s" s="16">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G34" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H34" t="s" s="13">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I34" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J34" t="s" s="16">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K34" s="18"/>
       <c r="L34" t="s" s="16">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" ht="43.1" customHeight="1">
@@ -3945,10 +3953,10 @@
         <v>33310814</v>
       </c>
       <c r="B35" t="s" s="19">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s" s="13">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D35" s="20">
         <v>2020</v>
@@ -3960,22 +3968,22 @@
         <v>54</v>
       </c>
       <c r="G35" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H35" t="s" s="13">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I35" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J35" t="s" s="16">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K35" t="s" s="29">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L35" t="s" s="16">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" ht="45.3" customHeight="1">
@@ -3983,37 +3991,37 @@
         <v>32352482</v>
       </c>
       <c r="B36" t="s" s="19">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s" s="13">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D36" s="20">
         <v>2020</v>
       </c>
       <c r="E36" t="s" s="16">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F36" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G36" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H36" t="s" s="13">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I36" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J36" t="s" s="16">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K36" t="s" s="16">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L36" t="s" s="16">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" ht="45.9" customHeight="1">
@@ -4021,10 +4029,10 @@
         <v>32184307</v>
       </c>
       <c r="B37" t="s" s="19">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s" s="13">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D37" s="20">
         <v>2020</v>
@@ -4036,22 +4044,22 @@
         <v>54</v>
       </c>
       <c r="G37" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H37" t="s" s="13">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I37" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J37" t="s" s="16">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K37" t="s" s="16">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L37" t="s" s="16">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" ht="39.05" customHeight="1">
@@ -4059,37 +4067,37 @@
         <v>34480857</v>
       </c>
       <c r="B38" t="s" s="28">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s" s="13">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D38" s="20">
         <v>2022</v>
       </c>
       <c r="E38" t="s" s="16">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s" s="16">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G38" t="s" s="16">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H38" t="s" s="13">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I38" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J38" t="s" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K38" t="s" s="16">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L38" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" ht="32.5" customHeight="1">
@@ -4097,75 +4105,75 @@
         <v>34362765</v>
       </c>
       <c r="B39" t="s" s="19">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s" s="13">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D39" s="20">
         <v>2021</v>
       </c>
       <c r="E39" t="s" s="16">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G39" t="s" s="16">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H39" t="s" s="13">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I39" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J39" t="s" s="16">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K39" t="s" s="16">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L39" t="s" s="16">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" ht="42.05" customHeight="1">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>33206138</v>
       </c>
       <c r="B40" t="s" s="19">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s" s="13">
-        <v>176</v>
-      </c>
-      <c r="D40" s="25">
+        <v>178</v>
+      </c>
+      <c r="D40" s="24">
         <v>2021</v>
       </c>
       <c r="E40" t="s" s="13">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F40" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G40" t="s" s="16">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H40" t="s" s="13">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I40" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J40" t="s" s="16">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K40" t="s" s="16">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" ht="39.45" customHeight="1">
@@ -4173,37 +4181,37 @@
         <v>32345579</v>
       </c>
       <c r="B41" t="s" s="28">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s" s="13">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D41" s="20">
         <v>2020</v>
       </c>
       <c r="E41" t="s" s="16">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G41" t="s" s="16">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H41" t="s" s="13">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I41" t="s" s="21">
         <v>32</v>
       </c>
       <c r="J41" t="s" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s" s="29">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L41" t="s" s="21">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" ht="42.75" customHeight="1">
@@ -4211,37 +4219,37 @@
         <v>33328246</v>
       </c>
       <c r="B42" t="s" s="28">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C42" t="s" s="13">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D42" s="20">
         <v>2020</v>
       </c>
       <c r="E42" t="s" s="16">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G42" t="s" s="16">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H42" t="s" s="13">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I42" t="s" s="21">
         <v>32</v>
       </c>
       <c r="J42" t="s" s="21">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="21">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L42" t="s" s="21">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" ht="37.1" customHeight="1">
@@ -4249,10 +4257,10 @@
         <v>34620654</v>
       </c>
       <c r="B43" t="s" s="19">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s" s="13">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D43" s="20">
         <v>2021</v>
@@ -4264,22 +4272,22 @@
         <v>54</v>
       </c>
       <c r="G43" t="s" s="16">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H43" t="s" s="13">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I43" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J43" t="s" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="16">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L43" t="s" s="16">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" ht="44.95" customHeight="1">
@@ -4287,35 +4295,35 @@
         <v>32442528</v>
       </c>
       <c r="B44" t="s" s="19">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C44" t="s" s="13">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D44" s="20">
         <v>2020</v>
       </c>
       <c r="E44" t="s" s="16">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F44" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G44" t="s" s="16">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H44" t="s" s="13">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I44" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J44" t="s" s="16">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K44" s="18"/>
       <c r="L44" t="s" s="16">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" ht="35" customHeight="1">
@@ -4323,37 +4331,37 @@
         <v>34224674</v>
       </c>
       <c r="B45" t="s" s="28">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s" s="13">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D45" s="20">
         <v>2021</v>
       </c>
       <c r="E45" t="s" s="16">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F45" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G45" t="s" s="16">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H45" t="s" s="13">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I45" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J45" t="s" s="16">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K45" t="s" s="16">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L45" t="s" s="16">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" ht="32.85" customHeight="1">
@@ -4361,10 +4369,10 @@
         <v>32114471</v>
       </c>
       <c r="B46" t="s" s="28">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s" s="13">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D46" s="20">
         <v>2020</v>
@@ -4376,20 +4384,20 @@
         <v>54</v>
       </c>
       <c r="G46" t="s" s="16">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H46" t="s" s="13">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I46" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J46" t="s" s="16">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K46" s="18"/>
       <c r="L46" t="s" s="16">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" ht="37.8" customHeight="1">
@@ -4397,10 +4405,10 @@
         <v>32501440</v>
       </c>
       <c r="B47" t="s" s="28">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C47" t="s" s="13">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D47" s="20">
         <v>2020</v>
@@ -4412,20 +4420,20 @@
         <v>54</v>
       </c>
       <c r="G47" t="s" s="16">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H47" t="s" s="13">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I47" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J47" t="s" s="16">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K47" s="18"/>
       <c r="L47" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" ht="37.2" customHeight="1">
@@ -4433,10 +4441,10 @@
         <v>34518250</v>
       </c>
       <c r="B48" t="s" s="28">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C48" t="s" s="13">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D48" s="20">
         <v>2021</v>
@@ -4445,25 +4453,25 @@
         <v>24</v>
       </c>
       <c r="F48" t="s" s="21">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G48" t="s" s="16">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H48" t="s" s="13">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I48" t="s" s="21">
         <v>32</v>
       </c>
       <c r="J48" t="s" s="29">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="21">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s" s="21">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" ht="35" customHeight="1">
@@ -4471,10 +4479,10 @@
         <v>32580989</v>
       </c>
       <c r="B49" t="s" s="19">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C49" t="s" s="13">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D49" s="20">
         <v>2020</v>
@@ -4483,25 +4491,25 @@
         <v>24</v>
       </c>
       <c r="F49" t="s" s="21">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s" s="16">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H49" t="s" s="13">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I49" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J49" t="s" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="16">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L49" t="s" s="16">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" ht="39.65" customHeight="1">
@@ -4509,10 +4517,10 @@
         <v>31964673</v>
       </c>
       <c r="B50" t="s" s="19">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s" s="13">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D50" s="20">
         <v>2020</v>
@@ -4521,13 +4529,13 @@
         <v>24</v>
       </c>
       <c r="F50" t="s" s="21">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G50" t="s" s="16">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H50" t="s" s="13">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I50" t="s" s="16">
         <v>29</v>
@@ -4537,7 +4545,7 @@
       </c>
       <c r="K50" s="18"/>
       <c r="L50" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" ht="33" customHeight="1">
@@ -4545,25 +4553,25 @@
         <v>33740408</v>
       </c>
       <c r="B51" t="s" s="28">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C51" t="s" s="13">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D51" s="20">
         <v>2021</v>
       </c>
       <c r="E51" t="s" s="16">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F51" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G51" t="s" s="16">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H51" t="s" s="13">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I51" t="s" s="16">
         <v>29</v>
@@ -4573,7 +4581,7 @@
       </c>
       <c r="K51" s="18"/>
       <c r="L51" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" ht="37.8" customHeight="1">
@@ -4581,10 +4589,10 @@
         <v>34615677</v>
       </c>
       <c r="B52" t="s" s="19">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C52" t="s" s="13">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D52" s="20">
         <v>2021</v>
@@ -4596,10 +4604,10 @@
         <v>54</v>
       </c>
       <c r="G52" t="s" s="16">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H52" t="s" s="13">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I52" t="s" s="16">
         <v>29</v>
@@ -4609,20 +4617,20 @@
       </c>
       <c r="K52" s="18"/>
       <c r="L52" t="s" s="16">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" ht="40.95" customHeight="1">
-      <c r="A53" s="23">
+      <c r="A53" s="22">
         <v>34028496</v>
       </c>
       <c r="B53" t="s" s="26">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C53" t="s" s="13">
-        <v>232</v>
-      </c>
-      <c r="D53" s="25">
+        <v>234</v>
+      </c>
+      <c r="D53" s="24">
         <v>2021</v>
       </c>
       <c r="E53" t="s" s="13">
@@ -4632,10 +4640,10 @@
         <v>54</v>
       </c>
       <c r="G53" t="s" s="16">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H53" t="s" s="13">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I53" t="s" s="13">
         <v>29</v>
@@ -4643,9 +4651,9 @@
       <c r="J53" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K53" s="22"/>
+      <c r="K53" s="25"/>
       <c r="L53" t="s" s="13">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" ht="40.7" customHeight="1">
@@ -4653,10 +4661,10 @@
         <v>32589189</v>
       </c>
       <c r="B54" t="s" s="19">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C54" t="s" s="13">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D54" s="30">
         <v>2020</v>
@@ -4668,60 +4676,60 @@
         <v>54</v>
       </c>
       <c r="G54" t="s" s="16">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H54" t="s" s="13">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I54" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J54" t="s" s="16">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K54" t="s" s="16">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L54" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" ht="39.85" customHeight="1">
-      <c r="A55" s="23">
+      <c r="A55" s="22">
         <v>34843666</v>
       </c>
       <c r="B55" t="s" s="26">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C55" t="s" s="13">
-        <v>239</v>
-      </c>
-      <c r="D55" s="25">
+        <v>241</v>
+      </c>
+      <c r="D55" s="24">
         <v>2022</v>
       </c>
       <c r="E55" t="s" s="13">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F55" t="s" s="21">
         <v>54</v>
       </c>
       <c r="G55" t="s" s="16">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H55" t="s" s="13">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I55" t="s" s="21">
         <v>32</v>
       </c>
       <c r="J55" t="s" s="21">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K55" t="s" s="21">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L55" t="s" s="21">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" ht="39.35" customHeight="1">
@@ -4729,37 +4737,37 @@
         <v>33600777</v>
       </c>
       <c r="B56" t="s" s="19">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C56" t="s" s="13">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D56" s="20">
         <v>2021</v>
       </c>
       <c r="E56" t="s" s="16">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F56" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G56" t="s" s="16">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H56" t="s" s="13">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I56" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J56" t="s" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K56" t="s" s="16">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L56" t="s" s="16">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" ht="33.65" customHeight="1">
@@ -4767,10 +4775,10 @@
         <v>32912943</v>
       </c>
       <c r="B57" t="s" s="19">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C57" t="s" s="13">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D57" s="20">
         <v>2020</v>
@@ -4782,20 +4790,20 @@
         <v>54</v>
       </c>
       <c r="G57" t="s" s="16">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H57" t="s" s="13">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I57" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J57" t="s" s="16">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K57" s="18"/>
       <c r="L57" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" ht="34.25" customHeight="1">
@@ -4803,10 +4811,10 @@
         <v>34845069</v>
       </c>
       <c r="B58" t="s" s="19">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C58" t="s" s="13">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D58" s="20">
         <v>2021</v>
@@ -4818,22 +4826,22 @@
         <v>54</v>
       </c>
       <c r="G58" t="s" s="16">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H58" t="s" s="13">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I58" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J58" t="s" s="16">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K58" t="s" s="29">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L58" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" ht="38.25" customHeight="1">
@@ -4841,25 +4849,25 @@
         <v>32139599</v>
       </c>
       <c r="B59" t="s" s="28">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C59" t="s" s="13">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D59" s="20">
         <v>2020</v>
       </c>
       <c r="E59" t="s" s="16">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F59" t="s" s="21">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G59" t="s" s="16">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H59" t="s" s="13">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I59" t="s" s="21">
         <v>29</v>
@@ -4869,7 +4877,7 @@
       </c>
       <c r="K59" s="32"/>
       <c r="L59" t="s" s="21">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" ht="32.5" customHeight="1">
@@ -4877,37 +4885,37 @@
         <v>32667669</v>
       </c>
       <c r="B60" t="s" s="19">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C60" t="s" s="13">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D60" s="20">
         <v>2020</v>
       </c>
       <c r="E60" t="s" s="16">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F60" t="s" s="33">
         <v>54</v>
       </c>
       <c r="G60" t="s" s="21">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H60" t="s" s="13">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I60" t="s" s="33">
         <v>32</v>
       </c>
       <c r="J60" t="s" s="33">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="33">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L60" t="s" s="33">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" ht="34.55" customHeight="1">
@@ -4915,25 +4923,25 @@
         <v>33571459</v>
       </c>
       <c r="B61" t="s" s="19">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C61" t="s" s="13">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D61" s="20">
         <v>2021</v>
       </c>
       <c r="E61" t="s" s="16">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s" s="16">
         <v>54</v>
       </c>
       <c r="G61" t="s" s="16">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H61" t="s" s="13">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I61" t="s" s="16">
         <v>32</v>
@@ -4942,10 +4950,10 @@
         <v>57</v>
       </c>
       <c r="K61" t="s" s="16">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L61" t="s" s="16">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" ht="36" customHeight="1">
@@ -4953,10 +4961,10 @@
         <v>32930780</v>
       </c>
       <c r="B62" t="s" s="19">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C62" t="s" s="13">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D62" s="20">
         <v>2020</v>
@@ -4968,22 +4976,22 @@
         <v>54</v>
       </c>
       <c r="G62" t="s" s="16">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H62" t="s" s="13">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I62" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J62" t="s" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K62" t="s" s="16">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" ht="34.1" customHeight="1">
@@ -4991,10 +4999,10 @@
         <v>33436477</v>
       </c>
       <c r="B63" t="s" s="19">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s" s="13">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D63" s="20">
         <v>2021</v>
@@ -5006,22 +5014,22 @@
         <v>54</v>
       </c>
       <c r="G63" t="s" s="16">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H63" t="s" s="13">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I63" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J63" t="s" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K63" t="s" s="16">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L63" t="s" s="16">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" ht="45.9" customHeight="1">
@@ -5029,10 +5037,10 @@
         <v>33597145</v>
       </c>
       <c r="B64" t="s" s="19">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C64" t="s" s="13">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D64" s="20">
         <v>2021</v>
@@ -5044,22 +5052,22 @@
         <v>54</v>
       </c>
       <c r="G64" t="s" s="16">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H64" t="s" s="13">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I64" t="s" s="16">
         <v>32</v>
       </c>
       <c r="J64" t="s" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s" s="16">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L64" t="s" s="16">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5067,7 +5075,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" location="" tooltip="" display="Emily R. Newton, "/>
+    <hyperlink ref="C14" r:id="rId1" location="" tooltip="" display="Emily R. Newton, "/>
     <hyperlink ref="C24" r:id="rId2" location="" tooltip="" display="Yun-Han Wang,"/>
     <hyperlink ref="C40" r:id="rId3" location="" tooltip="" display="Shirley Yen,"/>
   </hyperlinks>
